--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/35/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/35/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2512512512512513</v>
+        <v>0.4703470347034703</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1327.327327327327</v>
+        <v>1224.152415241524</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02182182182182182</v>
+        <v>0.02906290629062907</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8078078078078078</v>
+        <v>0.5651565156515652</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1789.78978978979</v>
+        <v>580.1780178017802</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>990.9909909909911</v>
+        <v>568.5868586858686</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>432.4324324324324</v>
+        <v>475.3726372637263</v>
       </c>
     </row>
   </sheetData>
